--- a/artfynd/A 25557-2019.xlsx
+++ b/artfynd/A 25557-2019.xlsx
@@ -8040,10 +8040,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>102262757</v>
+        <v>81745276</v>
       </c>
       <c r="B61" t="n">
-        <v>96334</v>
+        <v>5135</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -8052,46 +8052,43 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Söder om Tutjärnen, Vrm</t>
+          <t>Valåsen, Vrm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>317262.6606318104</v>
+        <v>318237.8515678492</v>
       </c>
       <c r="R61" t="n">
-        <v>6591084.767739117</v>
+        <v>6591495.875899103</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8118,7 +8115,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -8128,7 +8125,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -8142,31 +8139,25 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
-      </c>
-      <c r="AI61" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Bård E. Andersen</t>
+          <t>Jan Rees</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Bård E. Andersen</t>
+          <t>Jan Rees, Roger Gran</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>81745276</v>
+        <v>78458025</v>
       </c>
       <c r="B62" t="n">
         <v>5135</v>
@@ -8200,21 +8191,25 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Valåsen, Vrm</t>
+          <t>Sydväst Valåstjärn, Vrm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>318237.8515678492</v>
+        <v>318086.1680672934</v>
       </c>
       <c r="R62" t="n">
-        <v>6591495.875899103</v>
+        <v>6591484.330946958</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8241,7 +8236,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2019-06-05</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -8251,7 +8246,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2019-06-05</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -8265,28 +8260,29 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Jan Rees</t>
+          <t>Roger Gran</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Jan Rees, Roger Gran</t>
+          <t>Roger Gran</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78458025</v>
+        <v>106628007</v>
       </c>
       <c r="B63" t="n">
-        <v>5135</v>
+        <v>89997</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8295,47 +8291,45 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>105930</v>
+        <v>5454</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Hornvaxskinn</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Crustoderma corneum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bourdot &amp; Galzin) Nakasone</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Sydväst Valåstjärn, Vrm</t>
+          <t>Söder om Valåsen, Vrm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>318086.1680672934</v>
+        <v>317838.0016589427</v>
       </c>
       <c r="R63" t="n">
-        <v>6591484.330946958</v>
+        <v>6591494.270068384</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8362,7 +8356,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2019-06-05</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -8372,7 +8366,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2019-06-05</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -8390,22 +8384,42 @@
       <c r="AG63" t="b">
         <v>0</v>
       </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Låga # Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Roger Gran</t>
+          <t>Bård E. Andersen</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Roger Gran</t>
+          <t>Bård E. Andersen</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>106628007</v>
+        <v>106627208</v>
       </c>
       <c r="B64" t="n">
         <v>89997</v>
@@ -8448,14 +8462,14 @@
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Söder om Valåsen, Vrm</t>
+          <t>Vängsfjället, Vrm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>317838.0016589427</v>
+        <v>317636.1213810217</v>
       </c>
       <c r="R64" t="n">
-        <v>6591494.270068384</v>
+        <v>6591247.138022185</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8509,26 +8523,6 @@
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
-      </c>
-      <c r="AI64" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AJ64" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK64" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO64" t="inlineStr">
-        <is>
-          <t>Låga # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
@@ -8545,7 +8539,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106627208</v>
+        <v>106627422</v>
       </c>
       <c r="B65" t="n">
         <v>89997</v>
@@ -8588,14 +8582,14 @@
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Vängsfjället, Vrm</t>
+          <t>Söder om Tutjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>317636.1213810217</v>
+        <v>317574.1696661118</v>
       </c>
       <c r="R65" t="n">
-        <v>6591247.138022185</v>
+        <v>6591254.211470196</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8649,6 +8643,26 @@
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Låga # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
@@ -8665,10 +8679,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>106627422</v>
+        <v>108130364</v>
       </c>
       <c r="B66" t="n">
-        <v>89997</v>
+        <v>56540</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8681,44 +8695,49 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5454</v>
+        <v>103021</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hornvaxskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Crustoderma corneum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Bourdot &amp; Galzin) Nakasone</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Söder om Tutjärnen, Vrm</t>
+          <t>Tutjärnen, Ö om, Vrm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>317574.1696661118</v>
+        <v>317495.3811155346</v>
       </c>
       <c r="R66" t="n">
-        <v>6591254.211470196</v>
+        <v>6591187.681347501</v>
       </c>
       <c r="S66" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8742,22 +8761,22 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8766,49 +8785,28 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
-      </c>
-      <c r="AI66" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>Låga # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Bård E. Andersen</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Bård E. Andersen</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>108130364</v>
+        <v>109756385</v>
       </c>
       <c r="B67" t="n">
-        <v>56540</v>
+        <v>89545</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8817,53 +8815,48 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>103021</v>
+        <v>1503</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Tutjärnen, Ö om, Vrm</t>
+          <t>Söder om Valåstjärnet, Vrm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>317495.3811155346</v>
+        <v>318116.6165045868</v>
       </c>
       <c r="R67" t="n">
-        <v>6591187.681347501</v>
+        <v>6591681.631153035</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8887,22 +8880,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-06-03</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-06-03</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8911,28 +8904,49 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>I nisjor i kärnved # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Bård E. Andersen</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Bård E. Andersen</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>109756385</v>
+        <v>102262757</v>
       </c>
       <c r="B68" t="n">
-        <v>89545</v>
+        <v>96334</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8945,41 +8959,42 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1503</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Söder om Valåstjärnet, Vrm</t>
+          <t>Söder om Tutjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>318116.6165045868</v>
+        <v>317262.6606318104</v>
       </c>
       <c r="R68" t="n">
-        <v>6591681.631153035</v>
+        <v>6591084.767739117</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9006,7 +9021,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -9016,7 +9031,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -9037,21 +9052,6 @@
       <c r="AI68" t="inlineStr">
         <is>
           <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>I nisjor i kärnved # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
